--- a/config_3.23/prop_clear_server.xlsx
+++ b/config_3.23/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -644,7 +644,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,12 +694,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,8 +975,8 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="15">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="D6" s="15">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>78</v>
@@ -1599,16 +1593,16 @@
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="9">
         <v>1615852800</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="9">
         <v>1616428799</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="10" t="s">
         <v>111</v>
       </c>
     </row>
